--- a/jpcore-r4/feature/改行テスト/StructureDefinition-jp-practitionerrole.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-jp-practitionerrole.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="240">
   <si>
     <t>Property</t>
   </si>
@@ -146,10 +146,6 @@
   </si>
   <si>
     <t>医療従事者が一定期間、組織で行うことができる役割／場所／専門性／サービスの特定のセット。</t>
-  </si>
-  <si>
-    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -1235,16 +1231,16 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="AL1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="AM1" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="AM1" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>38</v>
@@ -1252,10 +1248,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1266,28 +1262,28 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s" s="2">
+      <c r="K2" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>53</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>54</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1337,13 +1333,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -1366,10 +1362,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1380,25 +1376,25 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K3" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>58</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>59</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1449,19 +1445,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -1478,10 +1474,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1492,28 +1488,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="J4" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1563,19 +1559,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -1592,10 +1588,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1606,7 +1602,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -1618,16 +1614,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1653,43 +1649,43 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y5" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="Y5" t="s" s="2">
+      <c r="Z5" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Z5" t="s" s="2">
+      <c r="AA5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AA5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -1706,21 +1702,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -1732,16 +1728,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1791,25 +1787,25 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL6" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>38</v>
@@ -1820,14 +1816,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -1846,16 +1842,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1905,7 +1901,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -1923,7 +1919,7 @@
         <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>38</v>
@@ -1934,14 +1930,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -1960,16 +1956,16 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2019,7 +2015,7 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2031,13 +2027,13 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>38</v>
@@ -2048,14 +2044,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2068,25 +2064,25 @@
         <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>38</v>
@@ -2135,7 +2131,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2147,13 +2143,13 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>38</v>
@@ -2164,10 +2160,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2187,20 +2183,20 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>38</v>
@@ -2249,7 +2245,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -2261,27 +2257,27 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK10" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AL10" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AL10" t="s" s="2">
+      <c r="AM10" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AM10" t="s" s="2">
+      <c r="AN10" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AN10" t="s" s="2">
-        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2292,114 +2288,114 @@
         <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K11" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="O11" t="s" s="2">
+      <c r="P11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q11" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="P11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q11" t="s" s="2">
+      <c r="R11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="R11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN11" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2410,31 +2406,31 @@
         <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J12" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K12" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>38</v>
@@ -2483,39 +2479,39 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2526,28 +2522,28 @@
         <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J13" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K13" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2597,25 +2593,25 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>38</v>
@@ -2626,10 +2622,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2640,28 +2636,28 @@
         <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J14" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K14" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>144</v>
-      </c>
       <c r="N14" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2711,25 +2707,25 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>38</v>
@@ -2740,10 +2736,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2763,22 +2759,22 @@
         <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>38</v>
@@ -2803,11 +2799,11 @@
         <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>38</v>
@@ -2825,7 +2821,7 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -2837,16 +2833,16 @@
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="AL15" t="s" s="2">
-        <v>154</v>
-      </c>
       <c r="AM15" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>38</v>
@@ -2854,10 +2850,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2877,19 +2873,19 @@
         <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -2915,14 +2911,14 @@
         <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y16" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="Z16" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>160</v>
-      </c>
       <c r="AA16" t="s" s="2">
         <v>38</v>
       </c>
@@ -2939,7 +2935,7 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -2951,16 +2947,16 @@
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>38</v>
@@ -2968,10 +2964,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2991,19 +2987,19 @@
         <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="M17" t="s" s="2">
-        <v>167</v>
-      </c>
       <c r="N17" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3053,7 +3049,7 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
@@ -3065,27 +3061,27 @@
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>170</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3108,16 +3104,16 @@
         <v>38</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>174</v>
-      </c>
       <c r="N18" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3167,7 +3163,7 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -3179,13 +3175,13 @@
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>38</v>
@@ -3196,10 +3192,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3219,22 +3215,22 @@
         <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>38</v>
@@ -3283,7 +3279,7 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -3295,13 +3291,13 @@
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>38</v>
@@ -3312,10 +3308,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3338,16 +3334,16 @@
         <v>38</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3397,7 +3393,7 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -3409,13 +3405,13 @@
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>38</v>
@@ -3426,10 +3422,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3440,7 +3436,7 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>38</v>
@@ -3452,13 +3448,13 @@
         <v>38</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3509,25 +3505,25 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>38</v>
@@ -3538,14 +3534,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3564,16 +3560,16 @@
         <v>38</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="M22" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3623,7 +3619,7 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -3635,13 +3631,13 @@
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>38</v>
@@ -3652,14 +3648,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3672,25 +3668,25 @@
         <v>38</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M23" t="s" s="2">
-        <v>202</v>
-      </c>
       <c r="N23" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>38</v>
@@ -3739,7 +3735,7 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
@@ -3751,13 +3747,13 @@
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>38</v>
@@ -3768,10 +3764,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3794,13 +3790,13 @@
         <v>38</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3827,14 +3823,14 @@
         <v>38</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="Y24" t="s" s="2">
+      <c r="Z24" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Z24" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="AA24" t="s" s="2">
         <v>38</v>
       </c>
@@ -3851,7 +3847,7 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -3863,13 +3859,13 @@
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>38</v>
@@ -3880,10 +3876,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3894,7 +3890,7 @@
         <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>38</v>
@@ -3906,13 +3902,13 @@
         <v>38</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3963,25 +3959,25 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>38</v>
@@ -3992,10 +3988,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4006,7 +4002,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>38</v>
@@ -4018,16 +4014,16 @@
         <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4077,25 +4073,25 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>38</v>
@@ -4106,10 +4102,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4120,7 +4116,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>38</v>
@@ -4132,16 +4128,16 @@
         <v>38</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>220</v>
-      </c>
       <c r="N27" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4191,25 +4187,25 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>38</v>
@@ -4220,10 +4216,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4246,13 +4242,13 @@
         <v>38</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4303,7 +4299,7 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
@@ -4315,13 +4311,13 @@
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>38</v>
@@ -4332,10 +4328,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4346,7 +4342,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>38</v>
@@ -4358,13 +4354,13 @@
         <v>38</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4415,25 +4411,25 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>38</v>
@@ -4444,14 +4440,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4470,16 +4466,16 @@
         <v>38</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="M30" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4529,7 +4525,7 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -4541,13 +4537,13 @@
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>38</v>
@@ -4558,14 +4554,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4578,25 +4574,25 @@
         <v>38</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M31" t="s" s="2">
-        <v>202</v>
-      </c>
       <c r="N31" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>38</v>
@@ -4645,7 +4641,7 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -4657,13 +4653,13 @@
         <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>38</v>
@@ -4674,10 +4670,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4685,10 +4681,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>38</v>
@@ -4700,13 +4696,13 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4757,25 +4753,25 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>38</v>
@@ -4786,10 +4782,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4800,7 +4796,7 @@
         <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>38</v>
@@ -4812,13 +4808,13 @@
         <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4869,25 +4865,25 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>38</v>
@@ -4898,10 +4894,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4912,7 +4908,7 @@
         <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>38</v>
@@ -4924,13 +4920,13 @@
         <v>38</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4981,25 +4977,25 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>38</v>
@@ -5010,10 +5006,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5036,19 +5032,19 @@
         <v>38</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O35" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>38</v>
@@ -5097,7 +5093,7 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -5109,13 +5105,13 @@
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>38</v>
